--- a/Data/Datasets/MdL_Berlin_Liste.xlsx
+++ b/Data/Datasets/MdL_Berlin_Liste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nilss\GDrive\Programmieren\RasperryPi\MdB_Twitter\Data\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A16288-1CC0-48D2-AC42-14B2D380B0AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECB08B3-2A16-40D7-947C-E15E4957A35D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="23310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="623">
   <si>
     <t>Username</t>
   </si>
@@ -94,9 +94,6 @@
     <t>JA</t>
   </si>
   <si>
-    <t>'data'</t>
-  </si>
-  <si>
     <t>Aldona Niemczyk</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>#431728530</t>
   </si>
   <si>
-    <t>#1643351478826827785</t>
-  </si>
-  <si>
     <t>andreschulze_nk</t>
   </si>
   <si>
@@ -172,9 +166,6 @@
     <t>#1267550519159132162</t>
   </si>
   <si>
-    <t>#1643658982458785799</t>
-  </si>
-  <si>
     <t>Andreas Geisel</t>
   </si>
   <si>
@@ -208,9 +199,6 @@
     <t>#2790200510</t>
   </si>
   <si>
-    <t>#1643498247237910529</t>
-  </si>
-  <si>
     <t>SeeroiberJenny</t>
   </si>
   <si>
@@ -232,9 +220,6 @@
     <t>#145180684</t>
   </si>
   <si>
-    <t>#1643226106026229761</t>
-  </si>
-  <si>
     <t>Antje_Kapek</t>
   </si>
   <si>
@@ -253,9 +238,6 @@
     <t>#410237349</t>
   </si>
   <si>
-    <t>#1642852551807623169</t>
-  </si>
-  <si>
     <t>BrousekAntonin</t>
   </si>
   <si>
@@ -304,7 +286,7 @@
     <t>Vizepräsidentin des Abgeordnetenhauses</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/BaharHaghani (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef56c778&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
+    <t>#2351568721</t>
   </si>
   <si>
     <t>Bettina_Jarasch</t>
@@ -325,7 +307,7 @@
     <t>Am 31. Dezember 2021 ausgeschieden, Nachrücker: Stefan Taschner.</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/Bettina_Jarasch (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef447dd8&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
+    <t>#748783193931653121</t>
   </si>
   <si>
     <t>Bettina König</t>
@@ -367,7 +349,7 @@
     <t>41,3 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/bjoernwohlert (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef4ef598&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
+    <t>#816968173140529152</t>
   </si>
   <si>
     <t>burkarddregger</t>
@@ -382,7 +364,7 @@
     <t>37,2 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/burkarddregger (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef3c4388&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
+    <t>#198518653</t>
   </si>
   <si>
     <t>schatzbln</t>
@@ -400,7 +382,7 @@
     <t>18,0 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/schatzbln (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef401538&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
+    <t>#46869996</t>
   </si>
   <si>
     <t>UbbelohdeBerlin</t>
@@ -418,7 +400,7 @@
     <t>14,1 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/UbbelohdeBerlin (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef313b80&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
+    <t>#753939278028238849</t>
   </si>
   <si>
     <t>CathPieroth</t>
@@ -433,7 +415,7 @@
     <t>36,9 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/CathPieroth (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef3c4778&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
+    <t>#4174833567</t>
   </si>
   <si>
     <t>CatrinWahlen</t>
@@ -454,7 +436,7 @@
     <t>Am 3. Januar 2022 nachgerückt für Daniel Wesener.</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/CatrinWahlen (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef313970&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
+    <t>#1367838005973708801</t>
   </si>
   <si>
     <t>GoinyChristian</t>
@@ -472,7 +454,7 @@
     <t>40,5 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/GoinyChristian (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef3a62b0&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
+    <t>#757577562742816768</t>
   </si>
   <si>
     <t>ChGraeff</t>
@@ -490,7 +472,7 @@
     <t>42,9 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/ChGraeff (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef2d4df0&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
+    <t>#798811366735781888</t>
   </si>
   <si>
     <t>Christian Zander</t>
@@ -517,7 +499,7 @@
     <t>25,9 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/Ch_Wapler (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef2997a8&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
+    <t>#712664410175709184</t>
   </si>
   <si>
     <t>Foerster_Chris</t>
@@ -532,7 +514,7 @@
     <t>43,1 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/Foerster_Chris (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef25ae20&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
+    <t>#2252060904</t>
   </si>
   <si>
     <t>Claudia Wein</t>
@@ -565,7 +547,7 @@
     <t>Vizepräsidentin des Abgeordnetenhauses (bis 16. März 2023)</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/CorneliaSeibeld (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef25a6a0&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
+    <t>#1123455000</t>
   </si>
   <si>
     <t>DValgolio</t>
@@ -583,7 +565,7 @@
     <t>24,7 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/DValgolio (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef1da040&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
+    <t>#1371218593413758986</t>
   </si>
   <si>
     <t>danielabillig</t>
@@ -595,9 +577,6 @@
     <t>Pankow 8</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/danielabillig (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef19a430&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>dannyfreymark</t>
   </si>
   <si>
@@ -610,9 +589,6 @@
     <t>40,8 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/dannyfreymark (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef1dad18&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>Dennis_Buchner</t>
   </si>
   <si>
@@ -631,9 +607,6 @@
     <t>Präsident des Abgeordnetenhauses (bis 16. März 2023)</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/Dennis_Buchner (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef19b718&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>Dennis Haustein</t>
   </si>
   <si>
@@ -655,9 +628,6 @@
     <t>Neukölln 3</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/Caglar_Derya_ (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef25af70&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>DirkStettner</t>
   </si>
   <si>
@@ -667,9 +637,6 @@
     <t>Bezirksliste Pankow, Platz 1</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/DirkStettner (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef216bf8&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>wolffdunja</t>
   </si>
   <si>
@@ -682,9 +649,6 @@
     <t>18,4 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/wolffdunja (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef3a6e80&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>ElifEralpBerlin</t>
   </si>
   <si>
@@ -700,9 +664,6 @@
     <t>27,1 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/ElifEralpBerlin (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef313568&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>ElkeBreitenbach</t>
   </si>
   <si>
@@ -715,9 +676,6 @@
     <t>10,1 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/ElkeBreitenbach (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef313da8&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>Ellen Haußdörfer</t>
   </si>
   <si>
@@ -766,9 +724,6 @@
     <t>14,6 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/FabsFisch (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef3c4ef8&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>der_neukoellner</t>
   </si>
   <si>
@@ -781,9 +736,6 @@
     <t>4,7 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/der_neukoellner (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef3a6dc0&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>Frank Balzer</t>
   </si>
   <si>
@@ -826,9 +778,6 @@
     <t>24,1 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/Fcm_BeckerSPD (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef2d4a00&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>F_Brychcy</t>
   </si>
   <si>
@@ -844,9 +793,6 @@
     <t>6,0 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/F_Brychcy (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef3e71c0&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>FranziskaGiffey</t>
   </si>
   <si>
@@ -862,9 +808,6 @@
     <t>29,6 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/FranziskaGiffey (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef1da598&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>GollalehA</t>
   </si>
   <si>
@@ -877,9 +820,6 @@
     <t>12,5 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/GollalehA (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef160670&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>AfDLindemann</t>
   </si>
   <si>
@@ -895,9 +835,6 @@
     <t>28,8 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/AfDLindemann (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef1da760&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>haraldlaatsch</t>
   </si>
   <si>
@@ -913,9 +850,6 @@
     <t>5,2 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/haraldlaatsch (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef160838&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>HeikoMelzer</t>
   </si>
   <si>
@@ -931,9 +865,6 @@
     <t>45,3 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/HeikoMelzer (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef228190&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>HendrikjeKlein</t>
   </si>
   <si>
@@ -949,9 +880,6 @@
     <t>25,0 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/HendrikjeKlein (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef225298&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>HughBronson_AfD</t>
   </si>
   <si>
@@ -964,9 +892,6 @@
     <t>5,1 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/HughBronson_AfD (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef228e98&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>CzyIna</t>
   </si>
   <si>
@@ -976,9 +901,6 @@
     <t>19,9 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/CzyIna (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef2a37f0&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>ineslinks</t>
   </si>
   <si>
@@ -991,9 +913,6 @@
     <t>15,4 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/ineslinks (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef225838&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>IrisSpranger</t>
   </si>
   <si>
@@ -1003,18 +922,12 @@
     <t>Marzahn-Hellersdorf 2</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/IrisSpranger (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef225d78&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>SPD_Lehmann</t>
   </si>
   <si>
     <t>Jan Lehmann</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/SPD_Lehmann (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef313058&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>FrauAuricht</t>
   </si>
   <si>
@@ -1027,9 +940,6 @@
     <t>Marzahn-Hellersdorf 3</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/FrauAuricht (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef3e7190&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>OmarJian</t>
   </si>
   <si>
@@ -1039,9 +949,6 @@
     <t>33,0 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/OmarJian (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef216970&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>JohKraft</t>
   </si>
   <si>
@@ -1051,9 +958,6 @@
     <t>41,6 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/JohKraft (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef19a9e8&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>Stroedter</t>
   </si>
   <si>
@@ -1063,9 +967,6 @@
     <t>22,8 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/Stroedter (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef2d4b08&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>Fuer_immer_Juli</t>
   </si>
   <si>
@@ -1081,9 +982,6 @@
     <t>30,9 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/Fuer_immer_Juli (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef122298&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>jul_schwarze</t>
   </si>
   <si>
@@ -1096,9 +994,6 @@
     <t>39,5 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/jul_schwarze (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef19a790&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>junomaerz</t>
   </si>
   <si>
@@ -1108,9 +1003,6 @@
     <t>3,1 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/junomaerz (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef19b268&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>kaiwegner</t>
   </si>
   <si>
@@ -1126,9 +1018,6 @@
     <t>46,9 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/kaiwegner (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef34b0e8&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>Wollihood</t>
   </si>
   <si>
@@ -1138,9 +1027,6 @@
     <t>20,0 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/Wollihood (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef228958&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>die_gennburg</t>
   </si>
   <si>
@@ -1150,9 +1036,6 @@
     <t>Landesliste, Platz 18 (19)</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/die_gennburg (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef34b9d0&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>gunther_wunsch</t>
   </si>
   <si>
@@ -1168,9 +1051,6 @@
     <t>45,0 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/gunther_wunsch (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef10d130&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>Kat_Se</t>
   </si>
   <si>
@@ -1186,9 +1066,6 @@
     <t>22,0 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/Kat_Se (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef10dbb0&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>Katina_Schubert</t>
   </si>
   <si>
@@ -1198,9 +1075,6 @@
     <t>3,9 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/Katina_Schubert (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef110808&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>kaddinsky</t>
   </si>
   <si>
@@ -1216,9 +1090,6 @@
     <t>40,3 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/kaddinsky (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef19fdd8&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>Katrin Seidel</t>
   </si>
   <si>
@@ -1246,9 +1117,6 @@
     <t>16,7 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/KlaraSche (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef19b7c0&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>klauslederer</t>
   </si>
   <si>
@@ -1261,9 +1129,6 @@
     <t>21,5 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/klauslederer (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef122d78&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>k_ronneburg</t>
   </si>
   <si>
@@ -1273,9 +1138,6 @@
     <t>15,3 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/k_ronneburg (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef543d90&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>Kristin_Brinker</t>
   </si>
   <si>
@@ -1285,9 +1147,6 @@
     <t>5,3 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/Kristin_Brinker (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef3e73e8&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>KWansner</t>
   </si>
   <si>
@@ -1306,9 +1165,6 @@
     <t>Alterspräsident des Abgeordnetenhauses</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/KWansner (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef386238&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>Lars Bocian</t>
   </si>
   <si>
@@ -1339,9 +1195,6 @@
     <t>22,3 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/LarsRauchfu (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef34bfe8&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>LaaLeeLuuLaura</t>
   </si>
   <si>
@@ -1357,9 +1210,6 @@
     <t>30,1 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/LaaLeeLuuLaura (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef4ef3b8&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>LiliaUsyk</t>
   </si>
   <si>
@@ -1372,9 +1222,6 @@
     <t>22,4 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/LiliaUsyk (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef3e7a48&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>4ecke</t>
   </si>
   <si>
@@ -1387,9 +1234,6 @@
     <t>13,9 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/4ecke (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef34b328&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>Lisa Knack</t>
   </si>
   <si>
@@ -1414,9 +1258,6 @@
     <t>22,2 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/louisvonkrueger (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef14f820&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>SchaalLucas</t>
   </si>
   <si>
@@ -1432,9 +1273,6 @@
     <t>24,9 %</t>
   </si>
   <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/SchaalLucas (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef19f700&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
-  </si>
-  <si>
     <t>MaikPenn</t>
   </si>
   <si>
@@ -1442,9 +1280,6 @@
   </si>
   <si>
     <t>31,6 %</t>
-  </si>
-  <si>
-    <t>HTTPSConnectionPool(host='api.twitter.com', port=443): Max retries exceeded with url: /2/users/by/username/MaikPenn (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xef19f880&gt;: Failed to establish a new connection: [Errno -3] Temporary failure in name resolution'))</t>
   </si>
   <si>
     <t>LasicMaja</t>
@@ -2419,7 +2254,7 @@
   <dimension ref="A1:N157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="N2" sqref="N2:N151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2502,13 +2337,10 @@
       <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>1969</v>
@@ -2517,65 +2349,65 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
         <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>1988</v>
       </c>
       <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
       <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
         <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
       </c>
       <c r="C5">
         <v>1975</v>
@@ -2584,17 +2416,17 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
       <c r="J5" t="s">
         <v>21</v>
       </c>
@@ -2603,36 +2435,33 @@
       </c>
       <c r="L5" t="s">
         <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>1987</v>
       </c>
       <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>47</v>
       </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
       <c r="J6" t="s">
         <v>21</v>
       </c>
@@ -2641,30 +2470,27 @@
       </c>
       <c r="L6" t="s">
         <v>23</v>
-      </c>
-      <c r="M6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>1966</v>
       </c>
       <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
       <c r="J7" t="s">
         <v>21</v>
       </c>
@@ -2672,34 +2498,34 @@
         <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>1962</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
         <v>58</v>
       </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" t="s">
-        <v>61</v>
-      </c>
       <c r="J8" t="s">
         <v>21</v>
       </c>
@@ -2708,36 +2534,33 @@
       </c>
       <c r="L8" t="s">
         <v>23</v>
-      </c>
-      <c r="M8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>1986</v>
       </c>
       <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
         <v>65</v>
       </c>
-      <c r="E9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" t="s">
-        <v>69</v>
-      </c>
       <c r="J9" t="s">
         <v>21</v>
       </c>
@@ -2746,35 +2569,32 @@
       </c>
       <c r="L9" t="s">
         <v>23</v>
-      </c>
-      <c r="M9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <v>1976</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
@@ -2784,35 +2604,32 @@
       </c>
       <c r="L10" t="s">
         <v>23</v>
-      </c>
-      <c r="M10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>1962</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
         <v>21</v>
@@ -2822,14 +2639,11 @@
       </c>
       <c r="L11" t="s">
         <v>23</v>
-      </c>
-      <c r="N11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <v>1989</v>
@@ -2838,13 +2652,13 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
         <v>21</v>
@@ -2853,33 +2667,36 @@
         <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>1984</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="I13" t="s">
+        <v>88</v>
       </c>
       <c r="J13" t="s">
         <v>21</v>
@@ -2889,35 +2706,35 @@
       </c>
       <c r="L13" t="s">
         <v>23</v>
-      </c>
-      <c r="N13" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C14">
         <v>1968</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s">
-        <v>100</v>
+        <v>94</v>
+      </c>
+      <c r="I14" t="s">
+        <v>95</v>
       </c>
       <c r="J14" t="s">
         <v>21</v>
@@ -2927,29 +2744,26 @@
       </c>
       <c r="L14" t="s">
         <v>23</v>
-      </c>
-      <c r="N14" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C15">
         <v>1978</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J15" t="s">
         <v>21</v>
@@ -2958,12 +2772,12 @@
         <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C16">
         <v>1970</v>
@@ -2972,33 +2786,33 @@
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
         <v>29</v>
       </c>
-      <c r="J16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C17">
         <v>1988</v>
@@ -3007,13 +2821,16 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>108</v>
+      </c>
+      <c r="I17" t="s">
+        <v>109</v>
       </c>
       <c r="J17" t="s">
         <v>21</v>
@@ -3024,16 +2841,13 @@
       <c r="L17" t="s">
         <v>23</v>
       </c>
-      <c r="N17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C18">
         <v>1964</v>
@@ -3042,16 +2856,19 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>114</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
@@ -3062,31 +2879,31 @@
       <c r="L18" t="s">
         <v>23</v>
       </c>
-      <c r="N18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C19">
         <v>1970</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>119</v>
+      </c>
+      <c r="I19" t="s">
+        <v>120</v>
       </c>
       <c r="J19" t="s">
         <v>21</v>
@@ -3097,34 +2914,34 @@
       <c r="L19" t="s">
         <v>23</v>
       </c>
-      <c r="N19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C20">
         <v>1962</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>126</v>
       </c>
       <c r="J20" t="s">
         <v>21</v>
@@ -3135,31 +2952,31 @@
       <c r="L20" t="s">
         <v>23</v>
       </c>
-      <c r="N20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C21">
         <v>1966</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="I21" t="s">
+        <v>131</v>
       </c>
       <c r="J21" t="s">
         <v>21</v>
@@ -3170,54 +2987,51 @@
       <c r="L21" t="s">
         <v>23</v>
       </c>
-      <c r="N21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C22">
         <v>1972</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
         <v>140</v>
-      </c>
-      <c r="F22" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" t="s">
-        <v>143</v>
-      </c>
-      <c r="J22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" t="s">
-        <v>146</v>
       </c>
       <c r="C23">
         <v>1965</v>
@@ -3226,13 +3040,16 @@
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G23" t="s">
-        <v>149</v>
+        <v>143</v>
+      </c>
+      <c r="I23" t="s">
+        <v>144</v>
       </c>
       <c r="J23" t="s">
         <v>21</v>
@@ -3243,16 +3060,13 @@
       <c r="L23" t="s">
         <v>23</v>
       </c>
-      <c r="N23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C24">
         <v>1978</v>
@@ -3261,13 +3075,16 @@
         <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F24" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G24" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="I24" t="s">
+        <v>150</v>
       </c>
       <c r="J24" t="s">
         <v>21</v>
@@ -3278,13 +3095,10 @@
       <c r="L24" t="s">
         <v>23</v>
       </c>
-      <c r="N24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C25">
         <v>1978</v>
@@ -3293,13 +3107,13 @@
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F25" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G25" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J25" t="s">
         <v>21</v>
@@ -3308,30 +3122,33 @@
         <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C26">
         <v>1969</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>164</v>
+        <v>158</v>
+      </c>
+      <c r="I26" t="s">
+        <v>159</v>
       </c>
       <c r="J26" t="s">
         <v>21</v>
@@ -3342,16 +3159,13 @@
       <c r="L26" t="s">
         <v>23</v>
       </c>
-      <c r="N26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C27">
         <v>1986</v>
@@ -3360,13 +3174,16 @@
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s">
-        <v>169</v>
+        <v>163</v>
+      </c>
+      <c r="I27" t="s">
+        <v>164</v>
       </c>
       <c r="J27" t="s">
         <v>21</v>
@@ -3377,13 +3194,10 @@
       <c r="L27" t="s">
         <v>23</v>
       </c>
-      <c r="N27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C28">
         <v>1958</v>
@@ -3392,33 +3206,33 @@
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F28" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G28" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" t="s">
         <v>29</v>
       </c>
-      <c r="J28" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C29">
         <v>1974</v>
@@ -3427,51 +3241,54 @@
         <v>16</v>
       </c>
       <c r="E29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" t="s">
+        <v>175</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" t="s">
         <v>177</v>
-      </c>
-      <c r="F29" t="s">
-        <v>178</v>
-      </c>
-      <c r="G29" t="s">
-        <v>179</v>
-      </c>
-      <c r="H29" t="s">
-        <v>180</v>
-      </c>
-      <c r="J29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" t="s">
-        <v>23</v>
-      </c>
-      <c r="N29" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" t="s">
-        <v>183</v>
       </c>
       <c r="C30">
         <v>1981</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G30" t="s">
-        <v>186</v>
+        <v>180</v>
+      </c>
+      <c r="I30" t="s">
+        <v>181</v>
       </c>
       <c r="J30" t="s">
         <v>21</v>
@@ -3482,31 +3299,28 @@
       <c r="L30" t="s">
         <v>23</v>
       </c>
-      <c r="N30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C31">
         <v>1970</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J31" t="s">
         <v>21</v>
@@ -3517,16 +3331,13 @@
       <c r="L31" t="s">
         <v>23</v>
       </c>
-      <c r="N31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C32">
         <v>1983</v>
@@ -3535,13 +3346,13 @@
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G32" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J32" t="s">
         <v>21</v>
@@ -3552,34 +3363,31 @@
       <c r="L32" t="s">
         <v>23</v>
       </c>
-      <c r="N32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B33" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C33">
         <v>1977</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F33" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G33" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H33" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="J33" t="s">
         <v>21</v>
@@ -3590,13 +3398,10 @@
       <c r="L33" t="s">
         <v>23</v>
       </c>
-      <c r="N33" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C34">
         <v>1990</v>
@@ -3605,48 +3410,48 @@
         <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G34" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" t="s">
         <v>29</v>
       </c>
-      <c r="J34" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C35">
         <v>1982</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F35" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G35" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="J35" t="s">
         <v>21</v>
@@ -3657,16 +3462,13 @@
       <c r="L35" t="s">
         <v>23</v>
       </c>
-      <c r="N35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C36">
         <v>1969</v>
@@ -3675,13 +3477,13 @@
         <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F36" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G36" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J36" t="s">
         <v>21</v>
@@ -3692,31 +3494,28 @@
       <c r="L36" t="s">
         <v>23</v>
       </c>
-      <c r="N36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C37">
         <v>1962</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F37" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G37" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="J37" t="s">
         <v>21</v>
@@ -3727,31 +3526,28 @@
       <c r="L37" t="s">
         <v>23</v>
       </c>
-      <c r="N37" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B38" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C38">
         <v>1981</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F38" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="G38" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="J38" t="s">
         <v>21</v>
@@ -3762,31 +3558,28 @@
       <c r="L38" t="s">
         <v>23</v>
       </c>
-      <c r="N38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B39" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C39">
         <v>1961</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F39" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="G39" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="J39" t="s">
         <v>21</v>
@@ -3797,28 +3590,25 @@
       <c r="L39" t="s">
         <v>23</v>
       </c>
-      <c r="N39" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C40">
         <v>1980</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="F40" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="G40" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="J40" t="s">
         <v>21</v>
@@ -3827,12 +3617,12 @@
         <v>22</v>
       </c>
       <c r="L40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C41">
         <v>1961</v>
@@ -3841,30 +3631,30 @@
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="F41" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G41" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" t="s">
         <v>29</v>
       </c>
-      <c r="J41" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C42">
         <v>1978</v>
@@ -3873,51 +3663,51 @@
         <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F42" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G42" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" t="s">
         <v>29</v>
       </c>
-      <c r="J42" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" t="s">
-        <v>22</v>
-      </c>
-      <c r="L42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C43">
         <v>1986</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F43" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G43" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="H43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J43" t="s">
         <v>21</v>
@@ -3928,31 +3718,28 @@
       <c r="L43" t="s">
         <v>23</v>
       </c>
-      <c r="N43" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B44" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C44">
         <v>1979</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F44" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="G44" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="J44" t="s">
         <v>21</v>
@@ -3963,13 +3750,10 @@
       <c r="L44" t="s">
         <v>23</v>
       </c>
-      <c r="N44" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C45">
         <v>1964</v>
@@ -3978,13 +3762,13 @@
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F45" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="G45" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="J45" t="s">
         <v>21</v>
@@ -3993,12 +3777,12 @@
         <v>22</v>
       </c>
       <c r="L45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C46">
         <v>1986</v>
@@ -4007,45 +3791,45 @@
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F46" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="G46" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" t="s">
         <v>29</v>
       </c>
-      <c r="J46" t="s">
-        <v>21</v>
-      </c>
-      <c r="K46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C47">
         <v>1964</v>
       </c>
       <c r="D47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G47" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="J47" t="s">
         <v>21</v>
@@ -4054,30 +3838,30 @@
         <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B48" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C48">
         <v>1967</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="F48" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="G48" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="J48" t="s">
         <v>21</v>
@@ -4088,31 +3872,28 @@
       <c r="L48" t="s">
         <v>23</v>
       </c>
-      <c r="N48" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C49">
         <v>1984</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E49" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F49" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="G49" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="J49" t="s">
         <v>21</v>
@@ -4123,31 +3904,28 @@
       <c r="L49" t="s">
         <v>23</v>
       </c>
-      <c r="N49" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B50" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C50">
         <v>1978</v>
       </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="F50" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G50" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="J50" t="s">
         <v>21</v>
@@ -4158,31 +3936,28 @@
       <c r="L50" t="s">
         <v>23</v>
       </c>
-      <c r="N50" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="B51" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C51">
         <v>1982</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F51" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="G51" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="J51" t="s">
         <v>21</v>
@@ -4193,31 +3968,28 @@
       <c r="L51" t="s">
         <v>23</v>
       </c>
-      <c r="N51" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C52">
         <v>1970</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="F52" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G52" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="J52" t="s">
         <v>21</v>
@@ -4228,31 +4000,28 @@
       <c r="L52" t="s">
         <v>23</v>
       </c>
-      <c r="N52" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="B53" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="C53">
         <v>1956</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="F53" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="G53" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="J53" t="s">
         <v>21</v>
@@ -4263,16 +4032,13 @@
       <c r="L53" t="s">
         <v>23</v>
       </c>
-      <c r="N53" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="B54" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="C54">
         <v>1976</v>
@@ -4281,13 +4047,13 @@
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="F54" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="G54" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="J54" t="s">
         <v>21</v>
@@ -4298,31 +4064,28 @@
       <c r="L54" t="s">
         <v>23</v>
       </c>
-      <c r="N54" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="B55" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C55">
         <v>1979</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E55" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="F55" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="G55" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="J55" t="s">
         <v>21</v>
@@ -4333,31 +4096,28 @@
       <c r="L55" t="s">
         <v>23</v>
       </c>
-      <c r="N55" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="B56" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="C56">
         <v>1961</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E56" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="F56" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="J56" t="s">
         <v>21</v>
@@ -4368,31 +4128,28 @@
       <c r="L56" t="s">
         <v>23</v>
       </c>
-      <c r="N56" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="B57" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="C57">
         <v>1966</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E57" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F57" t="s">
         <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="J57" t="s">
         <v>21</v>
@@ -4403,31 +4160,28 @@
       <c r="L57" t="s">
         <v>23</v>
       </c>
-      <c r="N57" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="B58" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="C58">
         <v>1960</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="F58" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G58" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="J58" t="s">
         <v>21</v>
@@ -4438,31 +4192,28 @@
       <c r="L58" t="s">
         <v>23</v>
       </c>
-      <c r="N58" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="B59" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="C59">
         <v>1961</v>
       </c>
       <c r="D59" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E59" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F59" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="G59" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="J59" t="s">
         <v>21</v>
@@ -4473,31 +4224,28 @@
       <c r="L59" t="s">
         <v>23</v>
       </c>
-      <c r="N59" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="B60" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="C60">
         <v>1971</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E60" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" t="s">
         <v>38</v>
       </c>
-      <c r="F60" t="s">
-        <v>39</v>
-      </c>
       <c r="G60" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J60" t="s">
         <v>21</v>
@@ -4508,31 +4256,28 @@
       <c r="L60" t="s">
         <v>23</v>
       </c>
-      <c r="N60" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="B61" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="C61">
         <v>1970</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E61" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="F61" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="G61" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J61" t="s">
         <v>21</v>
@@ -4543,31 +4288,28 @@
       <c r="L61" t="s">
         <v>23</v>
       </c>
-      <c r="N61" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="B62" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="C62">
         <v>1985</v>
       </c>
       <c r="D62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E62" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G62" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="J62" t="s">
         <v>21</v>
@@ -4578,16 +4320,13 @@
       <c r="L62" t="s">
         <v>23</v>
       </c>
-      <c r="N62" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="B63" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="C63">
         <v>1977</v>
@@ -4596,13 +4335,13 @@
         <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F63" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="G63" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="J63" t="s">
         <v>21</v>
@@ -4613,31 +4352,28 @@
       <c r="L63" t="s">
         <v>23</v>
       </c>
-      <c r="N63" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="B64" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="C64">
         <v>1954</v>
       </c>
       <c r="D64" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E64" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F64" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G64" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="J64" t="s">
         <v>21</v>
@@ -4648,31 +4384,28 @@
       <c r="L64" t="s">
         <v>23</v>
       </c>
-      <c r="N64" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="B65" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="C65">
         <v>1990</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E65" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="F65" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="G65" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="J65" t="s">
         <v>21</v>
@@ -4683,31 +4416,28 @@
       <c r="L65" t="s">
         <v>23</v>
       </c>
-      <c r="N65" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="B66" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="C66">
         <v>1983</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E66" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F66" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="G66" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="J66" t="s">
         <v>21</v>
@@ -4718,34 +4448,31 @@
       <c r="L66" t="s">
         <v>23</v>
       </c>
-      <c r="N66" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="B67" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="C67">
         <v>1997</v>
       </c>
       <c r="D67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E67" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F67" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G67" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="H67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J67" t="s">
         <v>21</v>
@@ -4756,16 +4483,13 @@
       <c r="L67" t="s">
         <v>23</v>
       </c>
-      <c r="N67" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="B68" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="C68">
         <v>1972</v>
@@ -4774,13 +4498,13 @@
         <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="F68" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="G68" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="J68" t="s">
         <v>21</v>
@@ -4791,31 +4515,28 @@
       <c r="L68" t="s">
         <v>23</v>
       </c>
-      <c r="N68" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="B69" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="C69">
         <v>1975</v>
       </c>
       <c r="D69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F69" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G69" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="J69" t="s">
         <v>21</v>
@@ -4826,31 +4547,28 @@
       <c r="L69" t="s">
         <v>23</v>
       </c>
-      <c r="N69" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="B70" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="C70">
         <v>1984</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E70" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="F70" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G70" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J70" t="s">
         <v>21</v>
@@ -4861,16 +4579,13 @@
       <c r="L70" t="s">
         <v>23</v>
       </c>
-      <c r="N70" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="B71" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="C71">
         <v>1983</v>
@@ -4879,13 +4594,13 @@
         <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="F71" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="G71" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="J71" t="s">
         <v>21</v>
@@ -4896,16 +4611,13 @@
       <c r="L71" t="s">
         <v>23</v>
       </c>
-      <c r="N71" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="C72">
         <v>1982</v>
@@ -4914,16 +4626,16 @@
         <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="F72" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="G72" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="H72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J72" t="s">
         <v>21</v>
@@ -4934,31 +4646,28 @@
       <c r="L72" t="s">
         <v>23</v>
       </c>
-      <c r="N72" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="B73" t="s">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="C73">
         <v>1961</v>
       </c>
       <c r="D73" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E73" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F73" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G73" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="J73" t="s">
         <v>21</v>
@@ -4969,31 +4678,28 @@
       <c r="L73" t="s">
         <v>23</v>
       </c>
-      <c r="N73" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="B74" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="C74">
         <v>1982</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E74" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="F74" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="G74" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="J74" t="s">
         <v>21</v>
@@ -5004,28 +4710,25 @@
       <c r="L74" t="s">
         <v>23</v>
       </c>
-      <c r="N74" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C75">
         <v>1967</v>
       </c>
       <c r="D75" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E75" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F75" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="G75" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="J75" t="s">
         <v>21</v>
@@ -5034,12 +4737,12 @@
         <v>22</v>
       </c>
       <c r="L75" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>402</v>
+        <v>359</v>
       </c>
       <c r="C76">
         <v>1976</v>
@@ -5048,48 +4751,48 @@
         <v>16</v>
       </c>
       <c r="E76" t="s">
-        <v>403</v>
+        <v>360</v>
       </c>
       <c r="F76" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="G76" t="s">
-        <v>404</v>
+        <v>361</v>
       </c>
       <c r="H76" t="s">
+        <v>28</v>
+      </c>
+      <c r="J76" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" t="s">
         <v>29</v>
       </c>
-      <c r="J76" t="s">
-        <v>21</v>
-      </c>
-      <c r="K76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L76" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>405</v>
+        <v>362</v>
       </c>
       <c r="B77" t="s">
-        <v>406</v>
+        <v>363</v>
       </c>
       <c r="C77">
         <v>2000</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E77" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F77" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="G77" t="s">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="J77" t="s">
         <v>21</v>
@@ -5100,31 +4803,28 @@
       <c r="L77" t="s">
         <v>23</v>
       </c>
-      <c r="N77" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>409</v>
+        <v>365</v>
       </c>
       <c r="B78" t="s">
-        <v>410</v>
+        <v>366</v>
       </c>
       <c r="C78">
         <v>1974</v>
       </c>
       <c r="D78" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E78" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F78" t="s">
-        <v>411</v>
+        <v>367</v>
       </c>
       <c r="G78" t="s">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="J78" t="s">
         <v>21</v>
@@ -5135,31 +4835,28 @@
       <c r="L78" t="s">
         <v>23</v>
       </c>
-      <c r="N78" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="B79" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="C79">
         <v>1986</v>
       </c>
       <c r="D79" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E79" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
       <c r="J79" t="s">
         <v>21</v>
@@ -5170,31 +4867,28 @@
       <c r="L79" t="s">
         <v>23</v>
       </c>
-      <c r="N79" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>418</v>
+        <v>372</v>
       </c>
       <c r="B80" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="C80">
         <v>1972</v>
       </c>
       <c r="D80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E80" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F80" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G80" t="s">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="J80" t="s">
         <v>21</v>
@@ -5205,16 +4899,13 @@
       <c r="L80" t="s">
         <v>23</v>
       </c>
-      <c r="N80" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>422</v>
+        <v>375</v>
       </c>
       <c r="B81" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="C81">
         <v>1947</v>
@@ -5223,16 +4914,16 @@
         <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>424</v>
+        <v>377</v>
       </c>
       <c r="F81" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="G81" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="H81" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
       <c r="J81" t="s">
         <v>21</v>
@@ -5243,13 +4934,10 @@
       <c r="L81" t="s">
         <v>23</v>
       </c>
-      <c r="N81" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>429</v>
+        <v>381</v>
       </c>
       <c r="C82">
         <v>1969</v>
@@ -5258,45 +4946,45 @@
         <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="F82" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="G82" t="s">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="H82" t="s">
+        <v>28</v>
+      </c>
+      <c r="J82" t="s">
+        <v>21</v>
+      </c>
+      <c r="K82" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" t="s">
         <v>29</v>
       </c>
-      <c r="J82" t="s">
-        <v>21</v>
-      </c>
-      <c r="K82" t="s">
-        <v>22</v>
-      </c>
-      <c r="L82" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="C83">
         <v>1981</v>
       </c>
       <c r="D83" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E83" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="J83" t="s">
         <v>21</v>
@@ -5305,30 +4993,30 @@
         <v>22</v>
       </c>
       <c r="L83" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
       <c r="B84" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="C84">
         <v>1986</v>
       </c>
       <c r="D84" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E84" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F84" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G84" t="s">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="J84" t="s">
         <v>21</v>
@@ -5339,31 +5027,28 @@
       <c r="L84" t="s">
         <v>23</v>
       </c>
-      <c r="N84" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="B85" t="s">
-        <v>441</v>
+        <v>392</v>
       </c>
       <c r="C85">
         <v>1995</v>
       </c>
       <c r="D85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E85" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="F85" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="G85" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="J85" t="s">
         <v>21</v>
@@ -5374,16 +5059,13 @@
       <c r="L85" t="s">
         <v>23</v>
       </c>
-      <c r="N85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="B86" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
       <c r="C86">
         <v>1989</v>
@@ -5392,16 +5074,16 @@
         <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="F86" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G86" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="H86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J86" t="s">
         <v>21</v>
@@ -5412,34 +5094,31 @@
       <c r="L86" t="s">
         <v>23</v>
       </c>
-      <c r="N86" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
       <c r="B87" t="s">
-        <v>452</v>
+        <v>401</v>
       </c>
       <c r="C87">
         <v>1982</v>
       </c>
       <c r="D87" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E87" t="s">
-        <v>453</v>
+        <v>402</v>
       </c>
       <c r="F87" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G87" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="H87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J87" t="s">
         <v>21</v>
@@ -5450,13 +5129,10 @@
       <c r="L87" t="s">
         <v>23</v>
       </c>
-      <c r="N87" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="C88">
         <v>1986</v>
@@ -5465,48 +5141,48 @@
         <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="F88" t="s">
-        <v>458</v>
+        <v>406</v>
       </c>
       <c r="G88" t="s">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="H88" t="s">
+        <v>28</v>
+      </c>
+      <c r="J88" t="s">
+        <v>21</v>
+      </c>
+      <c r="K88" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88" t="s">
         <v>29</v>
       </c>
-      <c r="J88" t="s">
-        <v>21</v>
-      </c>
-      <c r="K88" t="s">
-        <v>22</v>
-      </c>
-      <c r="L88" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="B89" t="s">
-        <v>461</v>
+        <v>409</v>
       </c>
       <c r="C89">
         <v>1996</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E89" t="s">
-        <v>462</v>
+        <v>410</v>
       </c>
       <c r="F89" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="G89" t="s">
-        <v>463</v>
+        <v>411</v>
       </c>
       <c r="J89" t="s">
         <v>21</v>
@@ -5517,16 +5193,13 @@
       <c r="L89" t="s">
         <v>23</v>
       </c>
-      <c r="N89" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="B90" t="s">
-        <v>466</v>
+        <v>413</v>
       </c>
       <c r="C90">
         <v>1990</v>
@@ -5535,16 +5208,16 @@
         <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>467</v>
+        <v>414</v>
       </c>
       <c r="F90" t="s">
-        <v>468</v>
+        <v>415</v>
       </c>
       <c r="G90" t="s">
-        <v>469</v>
+        <v>416</v>
       </c>
       <c r="H90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J90" t="s">
         <v>21</v>
@@ -5555,16 +5228,13 @@
       <c r="L90" t="s">
         <v>23</v>
       </c>
-      <c r="N90" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>471</v>
+        <v>417</v>
       </c>
       <c r="B91" t="s">
-        <v>472</v>
+        <v>418</v>
       </c>
       <c r="C91">
         <v>1981</v>
@@ -5573,13 +5243,13 @@
         <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="F91" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G91" t="s">
-        <v>473</v>
+        <v>419</v>
       </c>
       <c r="J91" t="s">
         <v>21</v>
@@ -5590,34 +5260,31 @@
       <c r="L91" t="s">
         <v>23</v>
       </c>
-      <c r="N91" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>475</v>
+        <v>420</v>
       </c>
       <c r="B92" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="C92">
         <v>1979</v>
       </c>
       <c r="D92" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>477</v>
+        <v>422</v>
       </c>
       <c r="F92" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="G92" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="H92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J92" t="s">
         <v>21</v>
@@ -5629,27 +5296,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="B93" t="s">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="C93">
         <v>1963</v>
       </c>
       <c r="D93" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E93" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F93" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="G93" t="s">
-        <v>480</v>
+        <v>425</v>
       </c>
       <c r="J93" t="s">
         <v>21</v>
@@ -5661,27 +5328,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>481</v>
+        <v>426</v>
       </c>
       <c r="B94" t="s">
-        <v>482</v>
+        <v>427</v>
       </c>
       <c r="C94">
         <v>1986</v>
       </c>
       <c r="D94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E94" t="s">
-        <v>483</v>
+        <v>428</v>
       </c>
       <c r="F94" t="s">
-        <v>484</v>
+        <v>429</v>
       </c>
       <c r="G94" t="s">
-        <v>485</v>
+        <v>430</v>
       </c>
       <c r="J94" t="s">
         <v>21</v>
@@ -5693,27 +5360,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="B95" t="s">
-        <v>487</v>
+        <v>432</v>
       </c>
       <c r="C95">
         <v>1972</v>
       </c>
       <c r="D95" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E95" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F95" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="G95" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
       <c r="J95" t="s">
         <v>21</v>
@@ -5725,30 +5392,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>489</v>
+        <v>434</v>
       </c>
       <c r="B96" t="s">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="C96">
         <v>1965</v>
       </c>
       <c r="D96" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E96" t="s">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="F96" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G96" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="H96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J96" t="s">
         <v>21</v>
@@ -5762,7 +5429,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>493</v>
+        <v>438</v>
       </c>
       <c r="C97">
         <v>1984</v>
@@ -5771,13 +5438,13 @@
         <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="F97" t="s">
-        <v>495</v>
+        <v>440</v>
       </c>
       <c r="G97" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="J97" t="s">
         <v>21</v>
@@ -5786,12 +5453,12 @@
         <v>22</v>
       </c>
       <c r="L97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="C98">
         <v>1957</v>
@@ -5800,45 +5467,45 @@
         <v>16</v>
       </c>
       <c r="E98" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F98" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="G98" t="s">
-        <v>498</v>
+        <v>443</v>
       </c>
       <c r="H98" t="s">
+        <v>28</v>
+      </c>
+      <c r="J98" t="s">
+        <v>21</v>
+      </c>
+      <c r="K98" t="s">
+        <v>22</v>
+      </c>
+      <c r="L98" t="s">
         <v>29</v>
-      </c>
-      <c r="J98" t="s">
-        <v>21</v>
-      </c>
-      <c r="K98" t="s">
-        <v>22</v>
-      </c>
-      <c r="L98" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>499</v>
+        <v>444</v>
       </c>
       <c r="C99">
         <v>1969</v>
       </c>
       <c r="D99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E99" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F99" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="G99" t="s">
-        <v>500</v>
+        <v>445</v>
       </c>
       <c r="J99" t="s">
         <v>21</v>
@@ -5847,30 +5514,30 @@
         <v>22</v>
       </c>
       <c r="L99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>501</v>
+        <v>446</v>
       </c>
       <c r="B100" t="s">
-        <v>502</v>
+        <v>447</v>
       </c>
       <c r="C100">
         <v>1985</v>
       </c>
       <c r="D100" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E100" t="s">
-        <v>503</v>
+        <v>448</v>
       </c>
       <c r="F100" t="s">
-        <v>504</v>
+        <v>449</v>
       </c>
       <c r="G100" t="s">
-        <v>505</v>
+        <v>450</v>
       </c>
       <c r="J100" t="s">
         <v>21</v>
@@ -5884,22 +5551,22 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>506</v>
+        <v>451</v>
       </c>
       <c r="C101">
         <v>1957</v>
       </c>
       <c r="D101" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E101" t="s">
         <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="G101" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="J101" t="s">
         <v>21</v>
@@ -5908,30 +5575,30 @@
         <v>22</v>
       </c>
       <c r="L101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>507</v>
+        <v>452</v>
       </c>
       <c r="B102" t="s">
-        <v>508</v>
+        <v>453</v>
       </c>
       <c r="C102">
         <v>1972</v>
       </c>
       <c r="D102" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E102" t="s">
-        <v>509</v>
+        <v>454</v>
       </c>
       <c r="F102" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G102" t="s">
-        <v>510</v>
+        <v>455</v>
       </c>
       <c r="J102" t="s">
         <v>21</v>
@@ -5945,28 +5612,28 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>511</v>
+        <v>456</v>
       </c>
       <c r="B103" t="s">
-        <v>512</v>
+        <v>457</v>
       </c>
       <c r="C103">
         <v>1980</v>
       </c>
       <c r="D103" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E103" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="F103" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G103" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="H103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J103" t="s">
         <v>21</v>
@@ -5980,10 +5647,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>513</v>
+        <v>458</v>
       </c>
       <c r="B104" t="s">
-        <v>514</v>
+        <v>459</v>
       </c>
       <c r="C104">
         <v>1968</v>
@@ -5992,13 +5659,13 @@
         <v>16</v>
       </c>
       <c r="E104" t="s">
-        <v>515</v>
+        <v>460</v>
       </c>
       <c r="F104" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G104" t="s">
-        <v>516</v>
+        <v>461</v>
       </c>
       <c r="J104" t="s">
         <v>21</v>
@@ -6012,22 +5679,22 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>517</v>
+        <v>462</v>
       </c>
       <c r="C105">
         <v>1970</v>
       </c>
       <c r="D105" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E105" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
       <c r="F105" t="s">
-        <v>519</v>
+        <v>464</v>
       </c>
       <c r="G105" t="s">
-        <v>520</v>
+        <v>465</v>
       </c>
       <c r="J105" t="s">
         <v>21</v>
@@ -6036,30 +5703,30 @@
         <v>22</v>
       </c>
       <c r="L105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>521</v>
+        <v>466</v>
       </c>
       <c r="B106" t="s">
-        <v>522</v>
+        <v>467</v>
       </c>
       <c r="C106">
         <v>1993</v>
       </c>
       <c r="D106" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E106" t="s">
-        <v>523</v>
+        <v>468</v>
       </c>
       <c r="F106" t="s">
-        <v>524</v>
+        <v>469</v>
       </c>
       <c r="G106" t="s">
-        <v>525</v>
+        <v>470</v>
       </c>
       <c r="J106" t="s">
         <v>21</v>
@@ -6073,25 +5740,25 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>526</v>
+        <v>471</v>
       </c>
       <c r="B107" t="s">
-        <v>527</v>
+        <v>472</v>
       </c>
       <c r="C107">
         <v>1981</v>
       </c>
       <c r="D107" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E107" t="s">
-        <v>528</v>
+        <v>473</v>
       </c>
       <c r="F107" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G107" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="J107" t="s">
         <v>21</v>
@@ -6105,25 +5772,25 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>529</v>
+        <v>474</v>
       </c>
       <c r="B108" t="s">
-        <v>530</v>
+        <v>475</v>
       </c>
       <c r="C108">
         <v>1974</v>
       </c>
       <c r="D108" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E108" t="s">
-        <v>531</v>
+        <v>476</v>
       </c>
       <c r="F108" t="s">
-        <v>411</v>
+        <v>367</v>
       </c>
       <c r="G108" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J108" t="s">
         <v>21</v>
@@ -6137,7 +5804,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>532</v>
+        <v>477</v>
       </c>
       <c r="C109">
         <v>1974</v>
@@ -6146,30 +5813,30 @@
         <v>16</v>
       </c>
       <c r="E109" t="s">
-        <v>533</v>
+        <v>478</v>
       </c>
       <c r="F109" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G109" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="H109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J109" t="s">
+        <v>21</v>
+      </c>
+      <c r="K109" t="s">
+        <v>22</v>
+      </c>
+      <c r="L109" t="s">
         <v>29</v>
-      </c>
-      <c r="J109" t="s">
-        <v>21</v>
-      </c>
-      <c r="K109" t="s">
-        <v>22</v>
-      </c>
-      <c r="L109" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>534</v>
+        <v>479</v>
       </c>
       <c r="C110">
         <v>1987</v>
@@ -6178,30 +5845,30 @@
         <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>535</v>
+        <v>480</v>
       </c>
       <c r="F110" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="G110" t="s">
-        <v>536</v>
+        <v>481</v>
       </c>
       <c r="H110" t="s">
+        <v>28</v>
+      </c>
+      <c r="J110" t="s">
+        <v>21</v>
+      </c>
+      <c r="K110" t="s">
+        <v>22</v>
+      </c>
+      <c r="L110" t="s">
         <v>29</v>
-      </c>
-      <c r="J110" t="s">
-        <v>21</v>
-      </c>
-      <c r="K110" t="s">
-        <v>22</v>
-      </c>
-      <c r="L110" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>537</v>
+        <v>482</v>
       </c>
       <c r="C111">
         <v>1970</v>
@@ -6210,13 +5877,13 @@
         <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="F111" t="s">
-        <v>519</v>
+        <v>464</v>
       </c>
       <c r="G111" t="s">
-        <v>538</v>
+        <v>483</v>
       </c>
       <c r="J111" t="s">
         <v>21</v>
@@ -6225,30 +5892,30 @@
         <v>22</v>
       </c>
       <c r="L111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>539</v>
+        <v>484</v>
       </c>
       <c r="B112" t="s">
-        <v>540</v>
+        <v>485</v>
       </c>
       <c r="C112">
         <v>1982</v>
       </c>
       <c r="D112" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E112" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F112" t="s">
-        <v>541</v>
+        <v>486</v>
       </c>
       <c r="G112" t="s">
-        <v>542</v>
+        <v>487</v>
       </c>
       <c r="J112" t="s">
         <v>21</v>
@@ -6262,7 +5929,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>543</v>
+        <v>488</v>
       </c>
       <c r="C113">
         <v>1967</v>
@@ -6271,48 +5938,48 @@
         <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>544</v>
+        <v>489</v>
       </c>
       <c r="F113" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="G113" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="H113" t="s">
+        <v>28</v>
+      </c>
+      <c r="J113" t="s">
+        <v>21</v>
+      </c>
+      <c r="K113" t="s">
+        <v>22</v>
+      </c>
+      <c r="L113" t="s">
         <v>29</v>
-      </c>
-      <c r="J113" t="s">
-        <v>21</v>
-      </c>
-      <c r="K113" t="s">
-        <v>22</v>
-      </c>
-      <c r="L113" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>545</v>
+        <v>490</v>
       </c>
       <c r="B114" t="s">
-        <v>546</v>
+        <v>491</v>
       </c>
       <c r="C114">
         <v>1965</v>
       </c>
       <c r="D114" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E114" t="s">
-        <v>547</v>
+        <v>492</v>
       </c>
       <c r="F114" t="s">
-        <v>524</v>
+        <v>469</v>
       </c>
       <c r="G114" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="J114" t="s">
         <v>21</v>
@@ -6326,25 +5993,25 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>548</v>
+        <v>493</v>
       </c>
       <c r="B115" t="s">
-        <v>549</v>
+        <v>494</v>
       </c>
       <c r="C115">
         <v>1977</v>
       </c>
       <c r="D115" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E115" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="F115" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G115" t="s">
-        <v>550</v>
+        <v>495</v>
       </c>
       <c r="J115" t="s">
         <v>21</v>
@@ -6358,28 +6025,28 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>551</v>
+        <v>496</v>
       </c>
       <c r="B116" t="s">
-        <v>552</v>
+        <v>497</v>
       </c>
       <c r="C116">
         <v>1960</v>
       </c>
       <c r="D116" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E116" t="s">
-        <v>544</v>
+        <v>489</v>
       </c>
       <c r="F116" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G116" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="H116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J116" t="s">
         <v>21</v>
@@ -6393,7 +6060,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>553</v>
+        <v>498</v>
       </c>
       <c r="C117">
         <v>1967</v>
@@ -6402,13 +6069,13 @@
         <v>16</v>
       </c>
       <c r="E117" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="F117" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="G117" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J117" t="s">
         <v>21</v>
@@ -6417,65 +6084,65 @@
         <v>22</v>
       </c>
       <c r="L117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>554</v>
+        <v>499</v>
       </c>
       <c r="C118">
         <v>1985</v>
       </c>
       <c r="D118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E118" t="s">
-        <v>555</v>
+        <v>500</v>
       </c>
       <c r="F118" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G118" t="s">
-        <v>556</v>
+        <v>501</v>
       </c>
       <c r="H118" t="s">
+        <v>28</v>
+      </c>
+      <c r="J118" t="s">
+        <v>21</v>
+      </c>
+      <c r="K118" t="s">
+        <v>22</v>
+      </c>
+      <c r="L118" t="s">
         <v>29</v>
-      </c>
-      <c r="J118" t="s">
-        <v>21</v>
-      </c>
-      <c r="K118" t="s">
-        <v>22</v>
-      </c>
-      <c r="L118" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>557</v>
+        <v>502</v>
       </c>
       <c r="B119" t="s">
-        <v>558</v>
+        <v>503</v>
       </c>
       <c r="C119">
         <v>1958</v>
       </c>
       <c r="D119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E119" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G119" t="s">
-        <v>559</v>
+        <v>504</v>
       </c>
       <c r="H119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J119" t="s">
         <v>21</v>
@@ -6489,10 +6156,10 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>560</v>
+        <v>505</v>
       </c>
       <c r="B120" t="s">
-        <v>561</v>
+        <v>506</v>
       </c>
       <c r="C120">
         <v>1974</v>
@@ -6501,13 +6168,13 @@
         <v>16</v>
       </c>
       <c r="E120" t="s">
-        <v>509</v>
+        <v>454</v>
       </c>
       <c r="F120" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G120" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="J120" t="s">
         <v>21</v>
@@ -6521,25 +6188,25 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>562</v>
+        <v>507</v>
       </c>
       <c r="B121" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="C121">
         <v>1973</v>
       </c>
       <c r="D121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E121" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F121" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="G121" t="s">
-        <v>564</v>
+        <v>509</v>
       </c>
       <c r="J121" t="s">
         <v>21</v>
@@ -6553,25 +6220,25 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>565</v>
+        <v>510</v>
       </c>
       <c r="B122" t="s">
-        <v>566</v>
+        <v>511</v>
       </c>
       <c r="C122">
         <v>1975</v>
       </c>
       <c r="D122" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E122" t="s">
-        <v>567</v>
+        <v>512</v>
       </c>
       <c r="F122" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="G122" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="J122" t="s">
         <v>21</v>
@@ -6585,10 +6252,10 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="B123" t="s">
-        <v>569</v>
+        <v>514</v>
       </c>
       <c r="C123">
         <v>1971</v>
@@ -6597,13 +6264,13 @@
         <v>16</v>
       </c>
       <c r="E123" t="s">
-        <v>570</v>
+        <v>515</v>
       </c>
       <c r="F123" t="s">
-        <v>571</v>
+        <v>516</v>
       </c>
       <c r="G123" t="s">
-        <v>572</v>
+        <v>517</v>
       </c>
       <c r="J123" t="s">
         <v>21</v>
@@ -6617,7 +6284,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>573</v>
+        <v>518</v>
       </c>
       <c r="C124">
         <v>1971</v>
@@ -6626,13 +6293,13 @@
         <v>16</v>
       </c>
       <c r="E124" t="s">
-        <v>574</v>
+        <v>519</v>
       </c>
       <c r="F124" t="s">
-        <v>575</v>
+        <v>520</v>
       </c>
       <c r="G124" t="s">
-        <v>576</v>
+        <v>521</v>
       </c>
       <c r="J124" t="s">
         <v>21</v>
@@ -6641,30 +6308,30 @@
         <v>22</v>
       </c>
       <c r="L124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>577</v>
+        <v>522</v>
       </c>
       <c r="B125" t="s">
-        <v>578</v>
+        <v>523</v>
       </c>
       <c r="C125">
         <v>1971</v>
       </c>
       <c r="D125" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E125" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="F125" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G125" t="s">
-        <v>579</v>
+        <v>524</v>
       </c>
       <c r="J125" t="s">
         <v>21</v>
@@ -6678,22 +6345,22 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>580</v>
+        <v>525</v>
       </c>
       <c r="C126">
         <v>1983</v>
       </c>
       <c r="D126" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>581</v>
+        <v>526</v>
       </c>
       <c r="G126" t="s">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="J126" t="s">
         <v>21</v>
@@ -6702,30 +6369,30 @@
         <v>22</v>
       </c>
       <c r="L126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>582</v>
+        <v>527</v>
       </c>
       <c r="B127" t="s">
-        <v>583</v>
+        <v>528</v>
       </c>
       <c r="C127">
         <v>1979</v>
       </c>
       <c r="D127" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E127" t="s">
-        <v>584</v>
+        <v>529</v>
       </c>
       <c r="F127" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="G127" t="s">
-        <v>404</v>
+        <v>361</v>
       </c>
       <c r="J127" t="s">
         <v>21</v>
@@ -6739,25 +6406,25 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>585</v>
+        <v>530</v>
       </c>
       <c r="B128" t="s">
-        <v>586</v>
+        <v>531</v>
       </c>
       <c r="C128">
         <v>1972</v>
       </c>
       <c r="D128" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E128" t="s">
-        <v>424</v>
+        <v>377</v>
       </c>
       <c r="F128" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="G128" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="J128" t="s">
         <v>21</v>
@@ -6771,25 +6438,25 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>587</v>
+        <v>532</v>
       </c>
       <c r="B129" t="s">
-        <v>588</v>
+        <v>533</v>
       </c>
       <c r="C129">
         <v>1983</v>
       </c>
       <c r="D129" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E129" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F129" t="s">
-        <v>589</v>
+        <v>534</v>
       </c>
       <c r="G129" t="s">
-        <v>590</v>
+        <v>535</v>
       </c>
       <c r="J129" t="s">
         <v>21</v>
@@ -6803,10 +6470,10 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>591</v>
+        <v>536</v>
       </c>
       <c r="B130" t="s">
-        <v>592</v>
+        <v>537</v>
       </c>
       <c r="C130">
         <v>1979</v>
@@ -6815,13 +6482,13 @@
         <v>16</v>
       </c>
       <c r="E130" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="F130" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="G130" t="s">
-        <v>593</v>
+        <v>538</v>
       </c>
       <c r="J130" t="s">
         <v>21</v>
@@ -6835,7 +6502,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>594</v>
+        <v>539</v>
       </c>
       <c r="C131">
         <v>1987</v>
@@ -6844,51 +6511,51 @@
         <v>16</v>
       </c>
       <c r="E131" t="s">
-        <v>595</v>
+        <v>540</v>
       </c>
       <c r="F131" t="s">
-        <v>484</v>
+        <v>429</v>
       </c>
       <c r="G131" t="s">
-        <v>596</v>
+        <v>541</v>
       </c>
       <c r="H131" t="s">
+        <v>28</v>
+      </c>
+      <c r="J131" t="s">
+        <v>21</v>
+      </c>
+      <c r="K131" t="s">
+        <v>22</v>
+      </c>
+      <c r="L131" t="s">
         <v>29</v>
-      </c>
-      <c r="J131" t="s">
-        <v>21</v>
-      </c>
-      <c r="K131" t="s">
-        <v>22</v>
-      </c>
-      <c r="L131" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="B132" t="s">
-        <v>598</v>
+        <v>543</v>
       </c>
       <c r="C132">
         <v>1969</v>
       </c>
       <c r="D132" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E132" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="F132" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="G132" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H132" t="s">
-        <v>599</v>
+        <v>544</v>
       </c>
       <c r="J132" t="s">
         <v>21</v>
@@ -6902,25 +6569,25 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>600</v>
+        <v>545</v>
       </c>
       <c r="B133" t="s">
-        <v>601</v>
+        <v>546</v>
       </c>
       <c r="C133">
         <v>1981</v>
       </c>
       <c r="D133" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E133" t="s">
-        <v>483</v>
+        <v>428</v>
       </c>
       <c r="F133" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="G133" t="s">
-        <v>602</v>
+        <v>547</v>
       </c>
       <c r="J133" t="s">
         <v>21</v>
@@ -6934,10 +6601,10 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>603</v>
+        <v>548</v>
       </c>
       <c r="B134" t="s">
-        <v>604</v>
+        <v>549</v>
       </c>
       <c r="C134">
         <v>1978</v>
@@ -6946,13 +6613,13 @@
         <v>16</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="F134" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="G134" t="s">
-        <v>605</v>
+        <v>550</v>
       </c>
       <c r="J134" t="s">
         <v>21</v>
@@ -6966,28 +6633,28 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>606</v>
+        <v>551</v>
       </c>
       <c r="B135" t="s">
-        <v>607</v>
+        <v>552</v>
       </c>
       <c r="C135">
         <v>1970</v>
       </c>
       <c r="D135" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E135" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="F135" t="s">
-        <v>608</v>
+        <v>553</v>
       </c>
       <c r="G135" t="s">
-        <v>609</v>
+        <v>554</v>
       </c>
       <c r="H135" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J135" t="s">
         <v>21</v>
@@ -7001,22 +6668,22 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>610</v>
+        <v>555</v>
       </c>
       <c r="C136">
         <v>1971</v>
       </c>
       <c r="D136" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E136" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="F136" t="s">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="G136" t="s">
-        <v>612</v>
+        <v>557</v>
       </c>
       <c r="J136" t="s">
         <v>21</v>
@@ -7025,15 +6692,15 @@
         <v>22</v>
       </c>
       <c r="L136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>613</v>
+        <v>558</v>
       </c>
       <c r="B137" t="s">
-        <v>614</v>
+        <v>559</v>
       </c>
       <c r="C137">
         <v>1968</v>
@@ -7042,16 +6709,16 @@
         <v>16</v>
       </c>
       <c r="E137" t="s">
-        <v>453</v>
+        <v>402</v>
       </c>
       <c r="F137" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G137" t="s">
-        <v>615</v>
+        <v>560</v>
       </c>
       <c r="H137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J137" t="s">
         <v>21</v>
@@ -7065,10 +6732,10 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>616</v>
+        <v>561</v>
       </c>
       <c r="B138" t="s">
-        <v>617</v>
+        <v>562</v>
       </c>
       <c r="C138">
         <v>1973</v>
@@ -7077,13 +6744,13 @@
         <v>16</v>
       </c>
       <c r="E138" t="s">
-        <v>618</v>
+        <v>563</v>
       </c>
       <c r="F138" t="s">
-        <v>619</v>
+        <v>564</v>
       </c>
       <c r="G138" t="s">
-        <v>620</v>
+        <v>565</v>
       </c>
       <c r="J138" t="s">
         <v>21</v>
@@ -7097,10 +6764,10 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>621</v>
+        <v>566</v>
       </c>
       <c r="B139" t="s">
-        <v>622</v>
+        <v>567</v>
       </c>
       <c r="C139">
         <v>1972</v>
@@ -7109,13 +6776,13 @@
         <v>16</v>
       </c>
       <c r="E139" t="s">
-        <v>518</v>
+        <v>463</v>
       </c>
       <c r="F139" t="s">
-        <v>623</v>
+        <v>568</v>
       </c>
       <c r="G139" t="s">
-        <v>624</v>
+        <v>569</v>
       </c>
       <c r="J139" t="s">
         <v>21</v>
@@ -7129,25 +6796,25 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>625</v>
+        <v>570</v>
       </c>
       <c r="B140" t="s">
-        <v>626</v>
+        <v>571</v>
       </c>
       <c r="C140">
         <v>1964</v>
       </c>
       <c r="D140" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E140" t="s">
-        <v>627</v>
+        <v>572</v>
       </c>
       <c r="F140" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G140" t="s">
-        <v>628</v>
+        <v>573</v>
       </c>
       <c r="J140" t="s">
         <v>21</v>
@@ -7161,22 +6828,22 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>629</v>
+        <v>574</v>
       </c>
       <c r="C141">
         <v>1978</v>
       </c>
       <c r="D141" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E141" t="s">
-        <v>630</v>
+        <v>575</v>
       </c>
       <c r="F141" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="G141" t="s">
-        <v>559</v>
+        <v>504</v>
       </c>
       <c r="J141" t="s">
         <v>21</v>
@@ -7185,27 +6852,27 @@
         <v>22</v>
       </c>
       <c r="L141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>631</v>
+        <v>576</v>
       </c>
       <c r="C142">
         <v>1975</v>
       </c>
       <c r="D142" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E142" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="F142" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G142" t="s">
-        <v>632</v>
+        <v>577</v>
       </c>
       <c r="J142" t="s">
         <v>21</v>
@@ -7214,12 +6881,12 @@
         <v>22</v>
       </c>
       <c r="L142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>633</v>
+        <v>578</v>
       </c>
       <c r="C143">
         <v>1978</v>
@@ -7228,13 +6895,13 @@
         <v>16</v>
       </c>
       <c r="E143" t="s">
-        <v>477</v>
+        <v>422</v>
       </c>
       <c r="F143" t="s">
-        <v>504</v>
+        <v>449</v>
       </c>
       <c r="G143" t="s">
-        <v>634</v>
+        <v>579</v>
       </c>
       <c r="J143" t="s">
         <v>21</v>
@@ -7243,30 +6910,30 @@
         <v>22</v>
       </c>
       <c r="L143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>635</v>
+        <v>580</v>
       </c>
       <c r="B144" t="s">
-        <v>636</v>
+        <v>581</v>
       </c>
       <c r="C144">
         <v>1991</v>
       </c>
       <c r="D144" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E144" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="F144" t="s">
-        <v>581</v>
+        <v>526</v>
       </c>
       <c r="G144" t="s">
-        <v>637</v>
+        <v>582</v>
       </c>
       <c r="J144" t="s">
         <v>21</v>
@@ -7280,25 +6947,25 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>638</v>
+        <v>583</v>
       </c>
       <c r="B145" t="s">
-        <v>639</v>
+        <v>584</v>
       </c>
       <c r="C145">
         <v>1988</v>
       </c>
       <c r="D145" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F145" t="s">
-        <v>640</v>
+        <v>585</v>
       </c>
       <c r="G145" t="s">
-        <v>624</v>
+        <v>569</v>
       </c>
       <c r="J145" t="s">
         <v>21</v>
@@ -7312,25 +6979,25 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>641</v>
+        <v>586</v>
       </c>
       <c r="B146" t="s">
-        <v>642</v>
+        <v>587</v>
       </c>
       <c r="C146">
         <v>1983</v>
       </c>
       <c r="D146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E146" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F146" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G146" t="s">
-        <v>643</v>
+        <v>588</v>
       </c>
       <c r="J146" t="s">
         <v>21</v>
@@ -7344,10 +7011,10 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>644</v>
+        <v>589</v>
       </c>
       <c r="B147" t="s">
-        <v>645</v>
+        <v>590</v>
       </c>
       <c r="C147">
         <v>1980</v>
@@ -7356,16 +7023,16 @@
         <v>16</v>
       </c>
       <c r="E147" t="s">
-        <v>630</v>
+        <v>575</v>
       </c>
       <c r="F147" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="G147" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
       <c r="H147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J147" t="s">
         <v>21</v>
@@ -7379,25 +7046,25 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>646</v>
+        <v>591</v>
       </c>
       <c r="B148" t="s">
-        <v>647</v>
+        <v>592</v>
       </c>
       <c r="C148">
         <v>1976</v>
       </c>
       <c r="D148" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E148" t="s">
-        <v>483</v>
+        <v>428</v>
       </c>
       <c r="F148" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="G148" t="s">
-        <v>648</v>
+        <v>593</v>
       </c>
       <c r="J148" t="s">
         <v>21</v>
@@ -7411,7 +7078,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>649</v>
+        <v>594</v>
       </c>
       <c r="C149">
         <v>1987</v>
@@ -7420,48 +7087,48 @@
         <v>16</v>
       </c>
       <c r="E149" t="s">
-        <v>650</v>
+        <v>595</v>
       </c>
       <c r="F149" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="G149" t="s">
-        <v>651</v>
+        <v>596</v>
       </c>
       <c r="H149" t="s">
+        <v>28</v>
+      </c>
+      <c r="J149" t="s">
+        <v>21</v>
+      </c>
+      <c r="K149" t="s">
+        <v>22</v>
+      </c>
+      <c r="L149" t="s">
         <v>29</v>
-      </c>
-      <c r="J149" t="s">
-        <v>21</v>
-      </c>
-      <c r="K149" t="s">
-        <v>22</v>
-      </c>
-      <c r="L149" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>652</v>
+        <v>597</v>
       </c>
       <c r="B150" t="s">
-        <v>653</v>
+        <v>598</v>
       </c>
       <c r="C150">
         <v>1982</v>
       </c>
       <c r="D150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E150" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F150" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G150" t="s">
-        <v>654</v>
+        <v>599</v>
       </c>
       <c r="J150" t="s">
         <v>21</v>
@@ -7475,28 +7142,28 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>655</v>
+        <v>600</v>
       </c>
       <c r="B151" t="s">
-        <v>656</v>
+        <v>601</v>
       </c>
       <c r="C151">
         <v>1975</v>
       </c>
       <c r="D151" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E151" t="s">
-        <v>657</v>
+        <v>602</v>
       </c>
       <c r="F151" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="G151" t="s">
-        <v>463</v>
+        <v>411</v>
       </c>
       <c r="H151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J151" t="s">
         <v>21</v>
@@ -7510,28 +7177,28 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>658</v>
+        <v>603</v>
       </c>
       <c r="B152" t="s">
-        <v>659</v>
+        <v>604</v>
       </c>
       <c r="C152">
         <v>1969</v>
       </c>
       <c r="D152" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E152" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F152" t="s">
-        <v>411</v>
+        <v>367</v>
       </c>
       <c r="G152" t="s">
-        <v>660</v>
+        <v>605</v>
       </c>
       <c r="H152" t="s">
-        <v>661</v>
+        <v>606</v>
       </c>
       <c r="J152" t="s">
         <v>21</v>
@@ -7545,25 +7212,25 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>662</v>
+        <v>607</v>
       </c>
       <c r="B153" t="s">
-        <v>663</v>
+        <v>608</v>
       </c>
       <c r="C153">
         <v>1983</v>
       </c>
       <c r="D153" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E153" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F153" t="s">
-        <v>664</v>
+        <v>609</v>
       </c>
       <c r="G153" t="s">
-        <v>542</v>
+        <v>487</v>
       </c>
       <c r="J153" t="s">
         <v>21</v>
@@ -7577,25 +7244,25 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>665</v>
+        <v>610</v>
       </c>
       <c r="B154" t="s">
-        <v>666</v>
+        <v>611</v>
       </c>
       <c r="C154">
         <v>1965</v>
       </c>
       <c r="D154" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E154" t="s">
-        <v>667</v>
+        <v>612</v>
       </c>
       <c r="F154" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="G154" t="s">
-        <v>668</v>
+        <v>613</v>
       </c>
       <c r="J154" t="s">
         <v>21</v>
@@ -7609,28 +7276,28 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>669</v>
+        <v>614</v>
       </c>
       <c r="B155" t="s">
-        <v>670</v>
+        <v>615</v>
       </c>
       <c r="C155">
         <v>1966</v>
       </c>
       <c r="D155" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E155" t="s">
-        <v>570</v>
+        <v>515</v>
       </c>
       <c r="F155" t="s">
-        <v>524</v>
+        <v>469</v>
       </c>
       <c r="G155" t="s">
-        <v>671</v>
+        <v>616</v>
       </c>
       <c r="H155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J155" t="s">
         <v>21</v>
@@ -7644,25 +7311,25 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>672</v>
+        <v>617</v>
       </c>
       <c r="B156" t="s">
-        <v>673</v>
+        <v>618</v>
       </c>
       <c r="C156">
         <v>1992</v>
       </c>
       <c r="D156" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E156" t="s">
-        <v>674</v>
+        <v>619</v>
       </c>
       <c r="F156" t="s">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="G156" t="s">
-        <v>675</v>
+        <v>620</v>
       </c>
       <c r="J156" t="s">
         <v>21</v>
@@ -7676,22 +7343,22 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>676</v>
+        <v>621</v>
       </c>
       <c r="B157" t="s">
-        <v>677</v>
+        <v>622</v>
       </c>
       <c r="C157">
         <v>1980</v>
       </c>
       <c r="D157" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E157" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F157" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J157" t="s">
         <v>21</v>
